--- a/covid19_drdfm/data/example-output/OH/df.xlsx
+++ b/covid19_drdfm/data/example-output/OH/df.xlsx
@@ -447,22 +447,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Employment1</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Employment2</t>
+          <t>Prod</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CPIU</t>
+          <t>UI</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PCEC</t>
+          <t>UR</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <v>40909</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1911968455201832</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.3120000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>40940</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8170711884503437</v>
+        <v>0.971525069000701</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8258139200228848</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4804248097350872</v>
+        <v>0.1704550386417817</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9797476154831077</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         <v>40969</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8135122768330407</v>
+        <v>0.9718080262128416</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8239012100173577</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4783596646895119</v>
+        <v>0.1446454669251529</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9810227532710519</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         <v>41000</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8018882440272991</v>
+        <v>0.9771884230404295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8180161564203544</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4580164258916395</v>
+        <v>0.1188653768978866</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9802673354121212</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="6">
@@ -539,16 +539,16 @@
         <v>41030</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8182644828456356</v>
+        <v>0.9792976738305977</v>
       </c>
       <c r="C6" t="n">
-        <v>0.819039970538338</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2823120937051792</v>
+        <v>0.1131564237288695</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9781946328218968</v>
+        <v>0.2800000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -556,16 +556,16 @@
         <v>41061</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8137537407112719</v>
+        <v>0.9787398830605506</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8175601904981341</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3408982227867237</v>
+        <v>0.1868301114461154</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9782729285877159</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="8">
@@ -573,16 +573,16 @@
         <v>41091</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8032999920192481</v>
+        <v>0.9758467539886408</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8205909698480336</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3934463727922193</v>
+        <v>0.1913599137217643</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9782685951174721</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="9">
@@ -590,16 +590,16 @@
         <v>41122</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8069065484055066</v>
+        <v>0.9732320870897947</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8218528986159431</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6527359268372354</v>
+        <v>0.1438315971069135</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9766178983157136</v>
+        <v>0.2640000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         <v>41153</v>
       </c>
       <c r="B10" t="n">
-        <v>0.834591805387279</v>
+        <v>0.973508564758691</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8220476470543482</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6040928049754837</v>
+        <v>0.1489490030837219</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9791251766773968</v>
+        <v>0.2640000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -624,16 +624,16 @@
         <v>41183</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8210965500458856</v>
+        <v>0.9715193711147702</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8210990580937662</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D11" t="n">
-        <v>0.506728251696605</v>
+        <v>0.1951401055593425</v>
       </c>
       <c r="E11" t="n">
-        <v>0.98396198687112</v>
+        <v>0.2640000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         <v>41214</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8033629658599835</v>
+        <v>0.974696485834416</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8212544385497698</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3006557725101743</v>
+        <v>0.1933083956560009</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9784922095456062</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>41244</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8068337204551878</v>
+        <v>0.9742452739213375</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8244209083586208</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D13" t="n">
-        <v>0.37413804795302</v>
+        <v>0.253634860739216</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9770136390526549</v>
+        <v>0.2800000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -675,16 +675,16 @@
         <v>41275</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8055543580226956</v>
+        <v>0.9789536442756823</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8223316824338748</v>
+        <v>0.5511842442137228</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4730736920152049</v>
+        <v>0.2473925161473854</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9824906505822639</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +692,16 @@
         <v>41306</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8095017709632395</v>
+        <v>0.9774037679026152</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8259306364023364</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6349860070635606</v>
+        <v>0.1722283434752096</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9789649499577149</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="16">
@@ -709,16 +709,16 @@
         <v>41334</v>
       </c>
       <c r="B16" t="n">
-        <v>0.805262264353838</v>
+        <v>0.9817011360382015</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8204826442824038</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2471689513070562</v>
+        <v>0.1496298455888057</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9778175006322838</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
         <v>41365</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8185903306715626</v>
+        <v>0.9756734551608661</v>
       </c>
       <c r="C17" t="n">
-        <v>0.822175410606488</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2813645162752761</v>
+        <v>0.1236034744386627</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9772029075462043</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="18">
@@ -743,16 +743,16 @@
         <v>41395</v>
       </c>
       <c r="B18" t="n">
-        <v>0.815943793632123</v>
+        <v>0.9744198448328893</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8232958481094075</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3993518297214528</v>
+        <v>0.111109123241844</v>
       </c>
       <c r="E18" t="n">
-        <v>0.978462438089242</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="19">
@@ -760,16 +760,16 @@
         <v>41426</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8112013334931283</v>
+        <v>0.9731083244233738</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8217901061473404</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4918638127890506</v>
+        <v>0.1851425710189968</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9807746156791444</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="20">
@@ -777,16 +777,16 @@
         <v>41456</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8165747062094404</v>
+        <v>0.9773612756153052</v>
       </c>
       <c r="C20" t="n">
-        <v>0.819524705107271</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4719810427311055</v>
+        <v>0.1874951802083283</v>
       </c>
       <c r="E20" t="n">
-        <v>0.979262308224759</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="21">
@@ -794,16 +794,16 @@
         <v>41487</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8091941800468382</v>
+        <v>0.9770875800912761</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8244296392645107</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4921920362000497</v>
+        <v>0.1376395827007807</v>
       </c>
       <c r="E21" t="n">
-        <v>0.978809824789761</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="22">
@@ -811,16 +811,16 @@
         <v>41518</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8102815037840168</v>
+        <v>0.9780693042658937</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8220025398786427</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3976005690238599</v>
+        <v>0.1387645436013106</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9786423571171835</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="23">
@@ -828,16 +828,16 @@
         <v>41548</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7748893508307949</v>
+        <v>0.9781670062105068</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8234365294311478</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4050553748719518</v>
+        <v>0.1858873229690295</v>
       </c>
       <c r="E23" t="n">
-        <v>0.982760952384311</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="24">
@@ -845,16 +845,16 @@
         <v>41579</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8412095355145293</v>
+        <v>0.9782516995301532</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8256241022260118</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4666731454969064</v>
+        <v>0.2034015303058506</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9812503954983279</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="25">
@@ -862,16 +862,16 @@
         <v>41609</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8177730833014433</v>
+        <v>0.9778486644644981</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8167674345972542</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D25" t="n">
-        <v>0.504271433281398</v>
+        <v>0.2620659831098288</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9796268144426162</v>
+        <v>0.2400000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -879,16 +879,16 @@
         <v>41640</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8203859482666936</v>
+        <v>0.9736903131204789</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8219631015294253</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.493934346505972</v>
+        <v>0.2601374677215696</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9777682868082346</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="27">
@@ -896,16 +896,16 @@
         <v>41671</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8063658967333401</v>
+        <v>0.9748350050597698</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8207960185887884</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4316850960443767</v>
+        <v>0.1719770917440695</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9765583916561276</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -913,16 +913,16 @@
         <v>41699</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8254627173521412</v>
+        <v>0.9735994419470356</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8257300281421081</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4759716818008413</v>
+        <v>0.144172235454506</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9818597384704605</v>
+        <v>0.1840000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -930,16 +930,16 @@
         <v>41730</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8076266774238325</v>
+        <v>0.9794281531008617</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8270190966267184</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D29" t="n">
-        <v>0.467607911577312</v>
+        <v>0.1066851029630491</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9818450146574353</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
         <v>41760</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8126222115907127</v>
+        <v>0.9795694007285145</v>
       </c>
       <c r="C30" t="n">
-        <v>0.822667647186039</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4694354679379368</v>
+        <v>0.1083586611250746</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9813103476548442</v>
+        <v>0.1600000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -964,16 +964,16 @@
         <v>41791</v>
       </c>
       <c r="B31" t="n">
-        <v>0.822080809866217</v>
+        <v>0.9800407342596337</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8277647645364593</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4420601940130754</v>
+        <v>0.182328958122362</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9787811040867067</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="32">
@@ -981,16 +981,16 @@
         <v>41821</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8123850160291054</v>
+        <v>0.978886162682297</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8242174934096156</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4328522352647602</v>
+        <v>0.1875820728227551</v>
       </c>
       <c r="E32" t="n">
-        <v>0.981568512407801</v>
+        <v>0.1440000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -998,16 +998,16 @@
         <v>41852</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8116286777528561</v>
+        <v>0.9802724059143709</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8217938869930206</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3723022077765162</v>
+        <v>0.1379522506671373</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9755787392253349</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="34">
@@ -1015,16 +1015,16 @@
         <v>41883</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8158018120719297</v>
+        <v>0.9799070533960385</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8266302034985644</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3832166305801797</v>
+        <v>0.1295083108628162</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9791237022486354</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="35">
@@ -1032,16 +1032,16 @@
         <v>41913</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8300547056264846</v>
+        <v>0.9761416980404705</v>
       </c>
       <c r="C35" t="n">
-        <v>0.824127956244755</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3705152434098531</v>
+        <v>0.1752098500836261</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9777252114392785</v>
+        <v>0.1200000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1049,16 +1049,16 @@
         <v>41944</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8061260573769912</v>
+        <v>0.9765883249322783</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8257594276344505</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2910385964014466</v>
+        <v>0.2040944967105582</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9784373590744389</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="37">
@@ -1066,16 +1066,16 @@
         <v>41974</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8144364776464362</v>
+        <v>0.9772564353995354</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8254627742564683</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2342588880723614</v>
+        <v>0.2635641761266297</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9778768331199639</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="38">
@@ -1083,16 +1083,16 @@
         <v>42005</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8257177919739254</v>
+        <v>0.9780167036759713</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8222752866023222</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07870096975326518</v>
+        <v>0.2653747060191037</v>
       </c>
       <c r="E38" t="n">
-        <v>0.973189625613409</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="39">
@@ -1100,16 +1100,16 @@
         <v>42036</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8034061642763356</v>
+        <v>0.9725405590517773</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8250360465027927</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4991270461619542</v>
+        <v>0.1690952606569107</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9781517738182761</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="40">
@@ -1117,16 +1117,16 @@
         <v>42064</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8098794065368862</v>
+        <v>0.9723047912856326</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8183126748240903</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5066174053952723</v>
+        <v>0.1668454958508367</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9803666848320294</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="41">
@@ -1134,16 +1134,16 @@
         <v>42095</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8204703357769915</v>
+        <v>0.9765106636494009</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8254374346256902</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4289422565245661</v>
+        <v>0.083009862159541</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9809898533911975</v>
+        <v>0.09599999999999997</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         <v>42125</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8177257676594207</v>
+        <v>0.9750891727310512</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8277463401846614</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5349905266530876</v>
+        <v>0.1249713781785807</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9791221375105186</v>
+        <v>0.08800000000000002</v>
       </c>
     </row>
     <row r="43">
@@ -1168,16 +1168,16 @@
         <v>42156</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8069081625681082</v>
+        <v>0.9754748838642071</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8206217231591978</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5101022712614719</v>
+        <v>0.1912991651408806</v>
       </c>
       <c r="E43" t="n">
-        <v>0.978997543988299</v>
+        <v>0.08000000000000007</v>
       </c>
     </row>
     <row r="44">
@@ -1185,16 +1185,16 @@
         <v>42186</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8074361484750139</v>
+        <v>0.9741300745539093</v>
       </c>
       <c r="C44" t="n">
-        <v>0.825997886786185</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4545412938591608</v>
+        <v>0.1831784405348231</v>
       </c>
       <c r="E44" t="n">
-        <v>0.977651602238532</v>
+        <v>0.07200000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         <v>42217</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8192830710681206</v>
+        <v>0.9748391368862269</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8200613956704663</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3796449961608567</v>
+        <v>0.149482621765133</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9770182518838439</v>
+        <v>0.07200000000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1219,16 +1219,16 @@
         <v>42248</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7944628639571398</v>
+        <v>0.9761395540191427</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8198242076397693</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2738033829246919</v>
+        <v>0.145109971708975</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9793377865484874</v>
+        <v>0.06400000000000006</v>
       </c>
     </row>
     <row r="47">
@@ -1236,16 +1236,16 @@
         <v>42278</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8217058068666531</v>
+        <v>0.9770087888009468</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8269545291609484</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4264502145385787</v>
+        <v>0.1614241708617046</v>
       </c>
       <c r="E47" t="n">
-        <v>0.974613594179923</v>
+        <v>0.07200000000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1253,16 +1253,16 @@
         <v>42309</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8145543568902583</v>
+        <v>0.9763436407150777</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8232721524409696</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4361074937639563</v>
+        <v>0.2224532833774911</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9783873368083413</v>
+        <v>0.07200000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1270,16 +1270,16 @@
         <v>42339</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8301987447499016</v>
+        <v>0.9775798155610621</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8251024926703656</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3291286649421136</v>
+        <v>0.2628827296799814</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9767338669535904</v>
+        <v>0.08000000000000007</v>
       </c>
     </row>
     <row r="50">
@@ -1287,16 +1287,16 @@
         <v>42370</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8252302269764712</v>
+        <v>0.9727305563387028</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8190219459600729</v>
+        <v>0.4138077661120655</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3582333302100829</v>
+        <v>0.2737395635423666</v>
       </c>
       <c r="E50" t="n">
-        <v>0.98167363084452</v>
+        <v>0.08800000000000002</v>
       </c>
     </row>
     <row r="51">
@@ -1304,16 +1304,16 @@
         <v>42401</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8168785545332913</v>
+        <v>0.9737171894557831</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8227369194373043</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317139331932879</v>
+        <v>0.1689652356730628</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9804857309116678</v>
+        <v>0.08800000000000002</v>
       </c>
     </row>
     <row r="52">
@@ -1321,16 +1321,16 @@
         <v>42430</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8166172624762037</v>
+        <v>0.9711555785576504</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8244083425910558</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D52" t="n">
-        <v>0.527342817213182</v>
+        <v>0.1445183292487055</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9799677242166804</v>
+        <v>0.08800000000000002</v>
       </c>
     </row>
     <row r="53">
@@ -1338,16 +1338,16 @@
         <v>42461</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8019526135529373</v>
+        <v>0.9757383677804796</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8218700422722833</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5600276253743403</v>
+        <v>0.09419740478647749</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9843664993593824</v>
+        <v>0.08800000000000002</v>
       </c>
     </row>
     <row r="54">
@@ -1355,16 +1355,16 @@
         <v>42491</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8089540979698909</v>
+        <v>0.9773061333935166</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8163254740842698</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4911291353516724</v>
+        <v>0.1380116690050505</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9803337721967778</v>
+        <v>0.08800000000000002</v>
       </c>
     </row>
     <row r="55">
@@ -1372,16 +1372,16 @@
         <v>42522</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8100965821959163</v>
+        <v>0.9769208839457865</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8241843065082501</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5104932049111612</v>
+        <v>0.1823487370934807</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9790415223734227</v>
+        <v>0.08800000000000002</v>
       </c>
     </row>
     <row r="56">
@@ -1389,16 +1389,16 @@
         <v>42552</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8183967831948311</v>
+        <v>0.9763169668325875</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8284285715748178</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3560972505717873</v>
+        <v>0.18296308497712</v>
       </c>
       <c r="E56" t="n">
-        <v>0.981015281890797</v>
+        <v>0.08800000000000002</v>
       </c>
     </row>
     <row r="57">
@@ -1406,16 +1406,16 @@
         <v>42583</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8147146482922014</v>
+        <v>0.9753665459188885</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8202700264204013</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4669182200412889</v>
+        <v>0.1551586188250852</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9817396552186772</v>
+        <v>0.08800000000000002</v>
       </c>
     </row>
     <row r="58">
@@ -1423,16 +1423,16 @@
         <v>42614</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8063220843276583</v>
+        <v>0.9751547634910992</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8258780750537105</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5033182562553414</v>
+        <v>0.1363577689893783</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9787856550618544</v>
+        <v>0.09599999999999997</v>
       </c>
     </row>
     <row r="59">
@@ -1440,16 +1440,16 @@
         <v>42644</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8080478076572463</v>
+        <v>0.9751118661929847</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8186995853766205</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4901319569909405</v>
+        <v>0.1654611627616233</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9801327453041018</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="60">
@@ -1457,16 +1457,16 @@
         <v>42675</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8124965697135286</v>
+        <v>0.9766982629230266</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8191507907084582</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4353786391004341</v>
+        <v>0.2024467107107472</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9760322058243911</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="61">
@@ -1474,16 +1474,16 @@
         <v>42705</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8139368519997429</v>
+        <v>0.9754355224634735</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8228900852335511</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4986856164755484</v>
+        <v>0.2860084457104284</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9794266720231996</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="62">
@@ -1491,16 +1491,16 @@
         <v>42736</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8067712217436585</v>
+        <v>0.9742125841415001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8233304665654089</v>
+        <v>0.3445788499275424</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5700337409100718</v>
+        <v>0.2419506103579556</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9846549301094776</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="63">
@@ -1508,16 +1508,16 @@
         <v>42767</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8182238647215494</v>
+        <v>0.9761065979257731</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8223746599484877</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D63" t="n">
-        <v>0.454856946818932</v>
+        <v>0.17230353477092</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9820560951350176</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="64">
@@ -1525,16 +1525,16 @@
         <v>42795</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8270024494154147</v>
+        <v>0.9779174574169621</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8195031242404242</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3578150554331625</v>
+        <v>0.1597207724421225</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9721032874061285</v>
+        <v>0.09599999999999997</v>
       </c>
     </row>
     <row r="65">
@@ -1542,16 +1542,16 @@
         <v>42826</v>
       </c>
       <c r="B65" t="n">
-        <v>0.813441790037817</v>
+        <v>0.9751042222805468</v>
       </c>
       <c r="C65" t="n">
-        <v>0.82201841942333</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4379823293781138</v>
+        <v>0.09910900152965124</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9838459099350136</v>
+        <v>0.09599999999999997</v>
       </c>
     </row>
     <row r="66">
@@ -1559,16 +1559,16 @@
         <v>42856</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8005818281819526</v>
+        <v>0.9772623459779763</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8227593368173521</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3433451879440547</v>
+        <v>0.1215140966279203</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9778158293211698</v>
+        <v>0.08800000000000002</v>
       </c>
     </row>
     <row r="67">
@@ -1576,16 +1576,16 @@
         <v>42887</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8154578610815599</v>
+        <v>0.9761743278496663</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8220724558148131</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D67" t="n">
-        <v>0.410549347079741</v>
+        <v>0.1900837663126188</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9800304991106373</v>
+        <v>0.08800000000000002</v>
       </c>
     </row>
     <row r="68">
@@ -1593,16 +1593,16 @@
         <v>42917</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8155122669478176</v>
+        <v>0.9769698755658672</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8215006893539329</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3952852113377378</v>
+        <v>0.2088894503617911</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9765079631200255</v>
+        <v>0.08800000000000002</v>
       </c>
     </row>
     <row r="69">
@@ -1610,16 +1610,16 @@
         <v>42948</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8046915430680994</v>
+        <v>0.9751171954487071</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8196592654238672</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5609150233935125</v>
+        <v>0.1213898387813569</v>
       </c>
       <c r="E69" t="n">
-        <v>0.979102434513735</v>
+        <v>0.08000000000000007</v>
       </c>
     </row>
     <row r="70">
@@ -1627,16 +1627,16 @@
         <v>42979</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8335959615893236</v>
+        <v>0.9739085615098273</v>
       </c>
       <c r="C70" t="n">
-        <v>0.818047234278343</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6199503001817661</v>
+        <v>0.1581620429091539</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9794011733698422</v>
+        <v>0.08000000000000007</v>
       </c>
     </row>
     <row r="71">
@@ -1644,16 +1644,16 @@
         <v>43009</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7839068529739605</v>
+        <v>0.9748704150437959</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8201370254127243</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4163665091399184</v>
+        <v>0.1442365325706504</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9848340411545677</v>
+        <v>0.07200000000000001</v>
       </c>
     </row>
     <row r="72">
@@ -1661,16 +1661,16 @@
         <v>43040</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8136231473531693</v>
+        <v>0.9747060334064533</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8231901576691838</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5054531287823583</v>
+        <v>0.2100660757199356</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9771776535582584</v>
+        <v>0.06400000000000006</v>
       </c>
     </row>
     <row r="73">
@@ -1678,16 +1678,16 @@
         <v>43070</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8103141008001655</v>
+        <v>0.9748850994640388</v>
       </c>
       <c r="C73" t="n">
-        <v>0.819973832527095</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4790655403947179</v>
+        <v>0.2814203834674408</v>
       </c>
       <c r="E73" t="n">
-        <v>0.980097022167201</v>
+        <v>0.05599999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -1695,16 +1695,16 @@
         <v>43101</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8246466423312068</v>
+        <v>0.9759411273134428</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8201546828915486</v>
+        <v>0.4654572420172691</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5579617292651852</v>
+        <v>0.2745274065641879</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9868247112645042</v>
+        <v>0.05599999999999999</v>
       </c>
     </row>
     <row r="75">
@@ -1712,16 +1712,16 @@
         <v>43132</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8330659605477557</v>
+        <v>0.9768940374639145</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8290277501110732</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5115782435314746</v>
+        <v>0.1454165311204912</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9827496788666857</v>
+        <v>0.04800000000000004</v>
       </c>
     </row>
     <row r="76">
@@ -1729,16 +1729,16 @@
         <v>43160</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8075171382937057</v>
+        <v>0.9777752562476026</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8228779466578857</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4066752155894716</v>
+        <v>0.1343555439097706</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9834844979235169</v>
+        <v>0.04800000000000004</v>
       </c>
     </row>
     <row r="77">
@@ -1746,16 +1746,16 @@
         <v>43191</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8102497836714794</v>
+        <v>0.9755829581579756</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8199781543527314</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4864555798421895</v>
+        <v>0.1127349582756867</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9810957775417388</v>
+        <v>0.04800000000000004</v>
       </c>
     </row>
     <row r="78">
@@ -1763,16 +1763,16 @@
         <v>43221</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8183984649936918</v>
+        <v>0.9756263268884713</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8267750524003048</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4990037387758953</v>
+        <v>0.106360695108815</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9817591353187322</v>
+        <v>0.04800000000000004</v>
       </c>
     </row>
     <row r="79">
@@ -1780,16 +1780,16 @@
         <v>43252</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8106440688255686</v>
+        <v>0.9762736595955163</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8223965221927245</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D79" t="n">
-        <v>0.443536424040789</v>
+        <v>0.1868039274756897</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9784106657816277</v>
+        <v>0.04800000000000004</v>
       </c>
     </row>
     <row r="80">
@@ -1797,16 +1797,16 @@
         <v>43282</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8198417357191273</v>
+        <v>0.9770126792185133</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8166722053316008</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4183183667114636</v>
+        <v>0.2043982190107791</v>
       </c>
       <c r="E80" t="n">
-        <v>0.979491595978044</v>
+        <v>0.04800000000000004</v>
       </c>
     </row>
     <row r="81">
@@ -1814,16 +1814,16 @@
         <v>43313</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7853610245878195</v>
+        <v>0.9771221425362023</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8238186390224658</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4596972479140294</v>
+        <v>0.1191389849082265</v>
       </c>
       <c r="E81" t="n">
-        <v>0.975033970154923</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="82">
@@ -1831,16 +1831,16 @@
         <v>43344</v>
       </c>
       <c r="B82" t="n">
-        <v>0.824129043682934</v>
+        <v>0.9758978113211385</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8178823542293278</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4715287686595205</v>
+        <v>0.137470323894188</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9826209712153378</v>
+        <v>0.04800000000000004</v>
       </c>
     </row>
     <row r="83">
@@ -1848,16 +1848,16 @@
         <v>43374</v>
       </c>
       <c r="B83" t="n">
-        <v>0.819552886792289</v>
+        <v>0.9759053570429826</v>
       </c>
       <c r="C83" t="n">
-        <v>0.820674477890516</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4961603152117828</v>
+        <v>0.1694524978894166</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9796210093737875</v>
+        <v>0.04800000000000004</v>
       </c>
     </row>
     <row r="84">
@@ -1865,16 +1865,16 @@
         <v>43405</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8179852778074733</v>
+        <v>0.977027618348596</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8181339159172965</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3415997683456339</v>
+        <v>0.2250242206944791</v>
       </c>
       <c r="E84" t="n">
-        <v>0.98166126228281</v>
+        <v>0.04800000000000004</v>
       </c>
     </row>
     <row r="85">
@@ -1882,16 +1882,16 @@
         <v>43435</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8101511910185669</v>
+        <v>0.9772029673527884</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8213242929372483</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3600564217250121</v>
+        <v>0.2739362002180613</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9806439707852279</v>
+        <v>0.04800000000000004</v>
       </c>
     </row>
     <row r="86">
@@ -1899,16 +1899,16 @@
         <v>43466</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7973139801202804</v>
+        <v>0.977611651818084</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8259309936709726</v>
+        <v>0.7654768705706247</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3647174717258458</v>
+        <v>0.2569575735088166</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9786664338987189</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="87">
@@ -1916,16 +1916,16 @@
         <v>43497</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8196116871088801</v>
+        <v>0.9761371681622681</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8138010898794865</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5038792710841919</v>
+        <v>0.1759188777327175</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9767325971937034</v>
+        <v>0.02400000000000002</v>
       </c>
     </row>
     <row r="88">
@@ -1933,16 +1933,16 @@
         <v>43525</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8018329244093183</v>
+        <v>0.975108103096898</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8229487460305345</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5913563343395413</v>
+        <v>0.1496155860096792</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9793252182555847</v>
+        <v>0.01599999999999996</v>
       </c>
     </row>
     <row r="89">
@@ -1950,16 +1950,16 @@
         <v>43556</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8045367245601444</v>
+        <v>0.9759518852824897</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8234836547045727</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5446092017417534</v>
+        <v>0.09502596549617809</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9851240471169656</v>
+        <v>0.008000000000000007</v>
       </c>
     </row>
     <row r="90">
@@ -1967,16 +1967,16 @@
         <v>43586</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8113212842232385</v>
+        <v>0.9780128001392531</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8170516540991243</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4097728513891348</v>
+        <v>0.1445363341104267</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9785662060674547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1984,16 +1984,16 @@
         <v>43617</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8186221843914154</v>
+        <v>0.9779708404352975</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8206962770596742</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D91" t="n">
-        <v>0.38649153885636</v>
+        <v>0.1645569563753282</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9823941640804321</v>
+        <v>0.008000000000000007</v>
       </c>
     </row>
     <row r="92">
@@ -2001,16 +2001,16 @@
         <v>43647</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8189620174086807</v>
+        <v>0.9774679050351378</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8175942660774596</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4792752537025191</v>
+        <v>0.1942277978999947</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9798030836781131</v>
+        <v>0.01599999999999996</v>
       </c>
     </row>
     <row r="93">
@@ -2018,16 +2018,16 @@
         <v>43678</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8154828077055877</v>
+        <v>0.9784086382868481</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8230507446757434</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4312301472581591</v>
+        <v>0.1337581902387528</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9781783786194277</v>
+        <v>0.02400000000000002</v>
       </c>
     </row>
     <row r="94">
@@ -2035,16 +2035,16 @@
         <v>43709</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8241791552854203</v>
+        <v>0.9780962115293881</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8221298771470258</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4565441355295847</v>
+        <v>0.1387621408773441</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9765585280189282</v>
+        <v>0.03199999999999997</v>
       </c>
     </row>
     <row r="95">
@@ -2052,16 +2052,16 @@
         <v>43739</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8126319742663987</v>
+        <v>0.9750657917737422</v>
       </c>
       <c r="C95" t="n">
-        <v>0.819289810779421</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5099701165816628</v>
+        <v>0.2030946725965444</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9797858088696763</v>
+        <v>0.03199999999999997</v>
       </c>
     </row>
     <row r="96">
@@ -2069,16 +2069,16 @@
         <v>43770</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8124937237162303</v>
+        <v>0.9764059142708084</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8224031023543661</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4682875810744797</v>
+        <v>0.2262252596066382</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9750503690185857</v>
+        <v>0.03199999999999997</v>
       </c>
     </row>
     <row r="97">
@@ -2086,16 +2086,16 @@
         <v>43800</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8132794396938479</v>
+        <v>0.9746567744090838</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8183015343154202</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4666626050633214</v>
+        <v>0.2537202051310913</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9831072632591373</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2103,16 @@
         <v>43831</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7973372499006984</v>
+        <v>0.9687492721991235</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8266883716369168</v>
+        <v>0.7215693408305414</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4562957516250217</v>
+        <v>0.2571780136892748</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9826493603113391</v>
+        <v>0.04800000000000004</v>
       </c>
     </row>
     <row r="99">
@@ -2120,16 +2120,16 @@
         <v>43862</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8137453876417202</v>
+        <v>0.9693762809288317</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8244621293926442</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D99" t="n">
-        <v>0.439059555797408</v>
+        <v>0.1721374263549576</v>
       </c>
       <c r="E99" t="n">
-        <v>0.98124669381788</v>
+        <v>0.05599999999999999</v>
       </c>
     </row>
     <row r="100">
@@ -2137,16 +2137,16 @@
         <v>43891</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6969692592429803</v>
+        <v>0.9722820910567799</v>
       </c>
       <c r="C100" t="n">
-        <v>0.762894256021043</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2262743642876197</v>
+        <v>0.1668594192314168</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9717266243966615</v>
+        <v>0.07200000000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2154,16 +2154,16 @@
         <v>43922</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.9533183092265771</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01182346175643989</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0.956664595749088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2171,16 +2171,16 @@
         <v>43952</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9569070071883189</v>
+        <v>0.9469724035184119</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9241151740788696</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3522132825430839</v>
+        <v>0.1090229549462748</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9795497106727131</v>
+        <v>0.7040000000000002</v>
       </c>
     </row>
     <row r="103">
@@ -2188,16 +2188,16 @@
         <v>43983</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0.9439452679743678</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6138188260274466</v>
+        <v>0.06877082408492553</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9824998107526026</v>
+        <v>0.5680000000000001</v>
       </c>
     </row>
     <row r="104">
@@ -2205,16 +2205,16 @@
         <v>44013</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8619915693855537</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8719716723206929</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6223428498919439</v>
+        <v>0.1364115857246527</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9876516371695102</v>
+        <v>0.4800000000000001</v>
       </c>
     </row>
     <row r="105">
@@ -2222,16 +2222,16 @@
         <v>44044</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9301592416903756</v>
+        <v>0.9990364019711633</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8827494139037064</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D105" t="n">
-        <v>0.568632768710604</v>
+        <v>0.1104617862185706</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9869906892720072</v>
+        <v>0.3600000000000001</v>
       </c>
     </row>
     <row r="106">
@@ -2239,16 +2239,16 @@
         <v>44075</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8220104815944788</v>
+        <v>0.9992984025575418</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8519897923760563</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4905468607131919</v>
+        <v>0.09903959970282111</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9811618247421615</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="107">
@@ -2256,16 +2256,16 @@
         <v>44105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8854473545587337</v>
+        <v>0.9789026330149179</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8424105555477105</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4091997879257664</v>
+        <v>0.02611376900446605</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9753990616390603</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="108">
@@ -2273,16 +2273,16 @@
         <v>44136</v>
       </c>
       <c r="B108" t="n">
-        <v>0.809529527014256</v>
+        <v>0.9790115544013338</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8247803516057473</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4466437111373774</v>
+        <v>0.1400991677601175</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9751453397140232</v>
+        <v>0.2080000000000001</v>
       </c>
     </row>
     <row r="109">
@@ -2290,16 +2290,16 @@
         <v>44166</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8080962408847309</v>
+        <v>0.9753531803225508</v>
       </c>
       <c r="C109" t="n">
-        <v>0.804278529958791</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5321018246348093</v>
+        <v>0.1736382242889469</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9875337282372185</v>
+        <v>0.1840000000000001</v>
       </c>
     </row>
     <row r="110">
@@ -2307,16 +2307,16 @@
         <v>44197</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8037985530107958</v>
+        <v>0.9762489805291191</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8336290661528916</v>
+        <v>0.8572877445962186</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4943928131909315</v>
+        <v>0.1656437239102374</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9869867133354615</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="111">
@@ -2324,16 +2324,16 @@
         <v>44228</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8186046173234472</v>
+        <v>0.9766579845622817</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8366655330876169</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5855552089591999</v>
+        <v>0.2634790878081588</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9809566549164035</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="112">
@@ -2341,16 +2341,16 @@
         <v>44256</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8259506443671929</v>
+        <v>0.9743855827245149</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8445415267298729</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6801679785195373</v>
+        <v>0.1892766993709362</v>
       </c>
       <c r="E112" t="n">
-        <v>0.991288101526027</v>
+        <v>0.1440000000000001</v>
       </c>
     </row>
     <row r="113">
@@ -2358,16 +2358,16 @@
         <v>44287</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8215175625321907</v>
+        <v>0.9781795556354655</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8254862688070219</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D113" t="n">
-        <v>0.681290936005489</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="114">
@@ -2375,16 +2375,16 @@
         <v>44317</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8177091421539534</v>
+        <v>0.9783171127980499</v>
       </c>
       <c r="C114" t="n">
-        <v>0.832893679041615</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7097890436050871</v>
+        <v>0.1197653227964232</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9953177368131433</v>
+        <v>0.1200000000000001</v>
       </c>
     </row>
     <row r="115">
@@ -2392,16 +2392,16 @@
         <v>44348</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8139240932155383</v>
+        <v>0.9778252335453235</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8407928447358934</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7918698206865462</v>
+        <v>0.1257815211381746</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9938378403237628</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="116">
@@ -2409,16 +2409,16 @@
         <v>44378</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8447262678280361</v>
+        <v>0.9768661310348141</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8435193384603674</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5933676549433829</v>
+        <v>0.09779911877707675</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9902418238171297</v>
+        <v>0.09599999999999997</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,16 @@
         <v>44409</v>
       </c>
       <c r="B117" t="n">
-        <v>0.8216318148412766</v>
+        <v>0.9773641479282602</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8394124451332354</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5369842896455852</v>
+        <v>0.1043110152470941</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9875954422895242</v>
+        <v>0.08000000000000007</v>
       </c>
     </row>
     <row r="118">
@@ -2443,16 +2443,16 @@
         <v>44440</v>
       </c>
       <c r="B118" t="n">
-        <v>0.829324685465715</v>
+        <v>0.9780358029643605</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8353603053475847</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5733056891296506</v>
+        <v>0.169672385942518</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9826403914483204</v>
+        <v>0.06400000000000006</v>
       </c>
     </row>
     <row r="119">
@@ -2460,16 +2460,16 @@
         <v>44470</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8248883981973458</v>
+        <v>0.9803143759465954</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8435751480102291</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7869501147721993</v>
+        <v>0.09602597416498385</v>
       </c>
       <c r="E119" t="n">
-        <v>0.990822126533077</v>
+        <v>0.04800000000000004</v>
       </c>
     </row>
     <row r="120">
@@ -2477,16 +2477,16 @@
         <v>44501</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8454799427581161</v>
+        <v>0.9798431943095912</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8372741196385735</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7086646182002438</v>
+        <v>0.1662955729824004</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9952808646827681</v>
+        <v>0.04800000000000004</v>
       </c>
     </row>
     <row r="121">
@@ -2494,16 +2494,16 @@
         <v>44531</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8253004314759759</v>
+        <v>0.9803358831469606</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8355296793252621</v>
+        <v>0.215360002275818</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6505070675988471</v>
+        <v>0.2136791431542541</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9964095594698834</v>
+        <v>0.04800000000000004</v>
       </c>
     </row>
     <row r="122">
@@ -2511,16 +2511,16 @@
         <v>44562</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8417655800512969</v>
+        <v>0.9733255566453061</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8279498252863896</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6833060359507753</v>
+        <v>0.2939003323086821</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9934873959452977</v>
+        <v>0.03199999999999997</v>
       </c>
     </row>
     <row r="123">
@@ -2528,16 +2528,16 @@
         <v>44593</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8225231991975527</v>
+        <v>0.9727483852182015</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8476052779413291</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7548506731960245</v>
+        <v>0.1772181753344442</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9891751212416464</v>
+        <v>0.02400000000000002</v>
       </c>
     </row>
     <row r="124">
@@ -2545,16 +2545,16 @@
         <v>44621</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8314178054745589</v>
+        <v>0.969637882213949</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8296529253655485</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9618970566512602</v>
+        <v>0.1282999782239425</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9891880507522977</v>
+        <v>0.01599999999999996</v>
       </c>
     </row>
     <row r="125">
@@ -2562,16 +2562,16 @@
         <v>44652</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7954831318683658</v>
+        <v>0.9793493905005561</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8238175672650873</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5362716851339961</v>
+        <v>0.1038387122487191</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9868666973528365</v>
+        <v>0.008000000000000007</v>
       </c>
     </row>
     <row r="126">
@@ -2579,16 +2579,16 @@
         <v>44682</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8174440166948352</v>
+        <v>0.9757645367371826</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8277797188483189</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8373213481418396</v>
+        <v>0.07293263013394377</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9894910767429179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2596,16 +2596,16 @@
         <v>44713</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7989289927695611</v>
+        <v>0.9723853437479635</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8279645765271101</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0.2038462265778667</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9998990712482405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2613,16 +2613,16 @@
         <v>44743</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8140641755195509</v>
+        <v>0.9790953675939823</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8350499354766038</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3707296219929684</v>
+        <v>0.2091605011144387</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9771713840447283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2630,16 +2630,16 @@
         <v>44774</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8208919451701608</v>
+        <v>0.9759282891935365</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8272376443346845</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4356150255383813</v>
+        <v>0.1322241626530945</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9966912583357779</v>
+        <v>0.008000000000000007</v>
       </c>
     </row>
     <row r="130">
@@ -2647,16 +2647,16 @@
         <v>44805</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8120903226948355</v>
+        <v>0.9752508730426577</v>
       </c>
       <c r="C130" t="n">
-        <v>0.827137159737487</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5617259035703712</v>
+        <v>0.1325437117426058</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9931564108696392</v>
+        <v>0.008000000000000007</v>
       </c>
     </row>
     <row r="131">
@@ -2664,16 +2664,16 @@
         <v>44835</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7984613780182788</v>
+        <v>0.9766846570924207</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8261809070724782</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5863861258720136</v>
+        <v>0.1890613490013417</v>
       </c>
       <c r="E131" t="n">
-        <v>0.986597945689223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2681,16 +2681,16 @@
         <v>44866</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8047628919116875</v>
+        <v>0.979095666828743</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8249456853534888</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4252858022654106</v>
+        <v>0.220402752932615</v>
       </c>
       <c r="E132" t="n">
-        <v>0.982967929989221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2698,16 +2698,16 @@
         <v>44896</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8305827208491328</v>
+        <v>0.9794553494681265</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8231128340033643</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9894576781362352</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/covid19_drdfm/data/example-output/OH/df.xlsx
+++ b/covid19_drdfm/data/example-output/OH/df.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,19 +452,69 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Prod</t>
+          <t>RPFI</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FixAss</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>UI</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PartR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>UR</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cons3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cons5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CPIU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PCE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Mask2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>School</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Hosp1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Deaths1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -480,7 +530,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.3120000000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -491,13 +571,43 @@
         <v>0.971525069000701</v>
       </c>
       <c r="C3" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6272722991740523</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.1704550386417817</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.304</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9851100437382486</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9925420773752746</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4804248097350872</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9679389035394174</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +618,43 @@
         <v>0.9718080262128416</v>
       </c>
       <c r="C4" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6248010039809482</v>
       </c>
       <c r="D4" t="n">
+        <v>0.02077802624301112</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.1446454669251529</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>0.9761904761904763</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.296</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9854964649264377</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9928699798770433</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4783596646895119</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.966573298315848</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -525,13 +665,43 @@
         <v>0.9771884230404295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6958201059900567</v>
       </c>
       <c r="D5" t="n">
+        <v>0.6137056317942742</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.1188653768978866</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>0.9761904761904763</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.288</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9862128112057411</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9934738675351394</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4580164258916395</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9640820130383683</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +712,43 @@
         <v>0.9792976738305977</v>
       </c>
       <c r="C6" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6950119022085963</v>
       </c>
       <c r="D6" t="n">
+        <v>0.7922291776762678</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.1131564237288695</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>0.9523809523809526</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.2800000000000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9891903950108464</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9959695408755557</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2823120937051792</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9538741718760513</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -559,13 +759,43 @@
         <v>0.9787398830605506</v>
       </c>
       <c r="C7" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6942138675271723</v>
       </c>
       <c r="D7" t="n">
+        <v>0.7458951943880247</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.1868301114461154</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>0.928571428571427</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.272</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9884142143230633</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9953246497442965</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3408982227867237</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.956476820529933</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -576,13 +806,43 @@
         <v>0.9758467539886408</v>
       </c>
       <c r="C8" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5521372071427478</v>
       </c>
       <c r="D8" t="n">
+        <v>0.5396110095896126</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.1913599137217643</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>0.9047619047619051</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.272</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9873413195326002</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9944314782857329</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3934463727922193</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9600922983102562</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -593,13 +853,43 @@
         <v>0.9732320870897947</v>
       </c>
       <c r="C9" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5521281217449937</v>
       </c>
       <c r="D9" t="n">
+        <v>0.3188960196339923</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.1438315971069135</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>0.9047619047619051</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.2640000000000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9836520282879798</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9913493040921416</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6527359268372354</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9726370191705382</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -610,13 +900,43 @@
         <v>0.973508564758691</v>
       </c>
       <c r="C10" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5521190373522826</v>
       </c>
       <c r="D10" t="n">
+        <v>0.3419269283064159</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.1489490030837219</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>0.8809523809523814</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.2640000000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9840318817529207</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9916714722472572</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6040928049754837</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9712958398905062</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -627,13 +947,43 @@
         <v>0.9715193711147702</v>
       </c>
       <c r="C11" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6122338956182717</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1946282140093846</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.1951401055593425</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>0.8809523809523814</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.2640000000000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.98410318530606</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9917354590580287</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.506728251696605</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9710078867636006</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -644,13 +994,43 @@
         <v>0.974696485834416</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6114946969407985</v>
       </c>
       <c r="D12" t="n">
+        <v>0.4615160204758187</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.1933083956560009</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>0.8809523809523814</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.272</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9885620108534238</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.995470153723206</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3006557725101743</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9557458204525275</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -661,13 +1041,43 @@
         <v>0.9742452739213375</v>
       </c>
       <c r="C13" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6107621264159812</v>
       </c>
       <c r="D13" t="n">
+        <v>0.4225105041073481</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.253634860739216</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>0.8809523809523814</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.2800000000000001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9879143210782532</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9949325314519617</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.37413804795302</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9579119267895568</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -678,13 +1088,43 @@
         <v>0.9789536442756823</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5511842442137228</v>
+        <v>0.6993137492733528</v>
       </c>
       <c r="D14" t="n">
+        <v>0.7648342762232662</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.2473925161473854</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>0.8571428571428577</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.288</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9863707309365936</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9930892477941934</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4730736920152049</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9666573187698657</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -695,13 +1135,43 @@
         <v>0.9774037679026152</v>
       </c>
       <c r="C15" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6986383297127864</v>
       </c>
       <c r="D15" t="n">
+        <v>0.635951611836225</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.1722283434752096</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>0.8571428571428577</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.296</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9842277053700575</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9913051472213763</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6349860070635606</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9739022526346681</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -712,13 +1182,43 @@
         <v>0.9817011360382015</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215360002275818</v>
+        <v>0.697969640439114</v>
       </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.1496298455888057</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>0.8571428571428577</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.296</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9903136078138489</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9964055462776867</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2471689513070562</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.953062076468007</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -729,13 +1229,43 @@
         <v>0.9756734551608661</v>
       </c>
       <c r="C17" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5835003186926508</v>
       </c>
       <c r="D17" t="n">
+        <v>0.6981558316030927</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.1236034744386627</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>0.8809523809523814</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.296</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9896383294342485</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9958492288125419</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2813645162752761</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9552985360150279</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -746,13 +1276,43 @@
         <v>0.9744198448328893</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5833572694844406</v>
       </c>
       <c r="D18" t="n">
+        <v>0.5912155043946685</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.111109123241844</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>0.8809523809523814</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.296</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9878543728767727</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.994365266161411</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3993518297214528</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9613194141187007</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -763,13 +1323,43 @@
         <v>0.9731083244233738</v>
       </c>
       <c r="C19" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5832148642665519</v>
       </c>
       <c r="D19" t="n">
+        <v>0.4794018370201913</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.1851425710189968</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>0.8809523809523814</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.296</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9859890701600111</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9928131591617378</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4918638127890506</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9676185898792923</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -780,13 +1370,43 @@
         <v>0.9773612756153052</v>
       </c>
       <c r="C20" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6573283163826841</v>
       </c>
       <c r="D20" t="n">
+        <v>0.6296858346967518</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.1874951802083283</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>0.8809523809523814</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.296</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9870898822568729</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9937425138686136</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4719810427311055</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9637948380358665</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -797,13 +1417,43 @@
         <v>0.9770875800912761</v>
       </c>
       <c r="C21" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6567576720922104</v>
       </c>
       <c r="D21" t="n">
+        <v>0.606872411047368</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.1376395827007807</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>0.8809523809523814</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.296</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9867092557770855</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9934323633726831</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4921920362000497</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9650278671739611</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -814,13 +1464,43 @@
         <v>0.9780693042658937</v>
       </c>
       <c r="C22" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6561934145746487</v>
       </c>
       <c r="D22" t="n">
+        <v>0.6898982055447618</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.1387645436013106</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>0.8571428571428577</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.288</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9880954836525969</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9946003362661784</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3976005690238599</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9602308122521267</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -831,13 +1511,43 @@
         <v>0.9781670062105068</v>
       </c>
       <c r="C23" t="n">
-        <v>0.215360002275818</v>
+        <v>0.656551668087281</v>
       </c>
       <c r="D23" t="n">
+        <v>0.6804815719839054</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.1858873229690295</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.272</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9864813229223902</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9932580036500567</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.4050553748719518</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9656751792246812</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -848,13 +1558,43 @@
         <v>0.9782516995301532</v>
       </c>
       <c r="C24" t="n">
-        <v>0.215360002275818</v>
+        <v>0.656168573365194</v>
       </c>
       <c r="D24" t="n">
+        <v>0.6887984372966256</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.2034015303058506</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>0.8095238095238084</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.256</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9866226524093291</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9933842890963404</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.4666731454969064</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9651282623410788</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -865,13 +1605,43 @@
         <v>0.9778486644644981</v>
       </c>
       <c r="C25" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6557886377881179</v>
       </c>
       <c r="D25" t="n">
+        <v>0.6559765141890952</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.2620659831098288</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>0.7857142857142865</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.2400000000000001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9860772167420562</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9929359237515154</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.504271433281398</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9669260016326096</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -882,13 +1652,43 @@
         <v>0.9736903131204789</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0.6240206470668943</v>
       </c>
       <c r="D26" t="n">
+        <v>0.5708321061349244</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.2601374677215696</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>0.7857142857142865</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.216</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9858494039662316</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.9929071498732162</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.493934346505972</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9665405811298221</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -899,13 +1699,43 @@
         <v>0.9748350050597698</v>
       </c>
       <c r="C27" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6238188208608315</v>
       </c>
       <c r="D27" t="n">
+        <v>0.6665380919814203</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.1719770917440695</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
+        <v>0.7857142857142865</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.2000000000000001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9874453260698701</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9942487582089748</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4316850960443767</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9610381658735081</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -916,13 +1746,43 @@
         <v>0.9735994419470356</v>
       </c>
       <c r="C28" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6236182774359972</v>
       </c>
       <c r="D28" t="n">
+        <v>0.5615718777501812</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.144172235454506</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
+        <v>0.7619047619047628</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.1840000000000001</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9856913262358369</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.9927876538663979</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4759716818008413</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9669709174555586</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -933,13 +1793,43 @@
         <v>0.9794281531008617</v>
       </c>
       <c r="C29" t="n">
-        <v>0.215360002275818</v>
+        <v>0.737318265573131</v>
       </c>
       <c r="D29" t="n">
+        <v>0.604486445310738</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.1066851029630491</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
+        <v>0.7619047619047628</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.168</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9857521196112798</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.9928448046466276</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.467607911577312</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9667094161832184</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -950,13 +1840,43 @@
         <v>0.9795694007285145</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215360002275818</v>
+        <v>0.7358219931142942</v>
       </c>
       <c r="D30" t="n">
+        <v>0.6195751626606847</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.1083586611250746</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
+        <v>0.7857142857142865</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.1600000000000001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9860035685960243</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.9930614054165037</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4694354679379368</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9657974574043684</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -967,13 +1887,43 @@
         <v>0.9800407342596337</v>
       </c>
       <c r="C31" t="n">
-        <v>0.215360002275818</v>
+        <v>0.7343521069561136</v>
       </c>
       <c r="D31" t="n">
+        <v>0.6624385397795738</v>
+      </c>
+      <c r="E31" t="n">
         <v>0.182328958122362</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
+        <v>0.7857142857142865</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.152</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9867186923323508</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.9936658734407618</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4420601940130754</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9633029987871482</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -984,13 +1934,43 @@
         <v>0.978886162682297</v>
       </c>
       <c r="C32" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6834015931458488</v>
       </c>
       <c r="D32" t="n">
+        <v>0.6205634986017986</v>
+      </c>
+      <c r="E32" t="n">
         <v>0.1875820728227551</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
+        <v>0.8095238095238084</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.1440000000000001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9862403158705491</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.9932717637707286</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.4328522352647602</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9648830981661997</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1001,13 +1981,43 @@
         <v>0.9802724059143709</v>
       </c>
       <c r="C33" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6826833360972777</v>
       </c>
       <c r="D33" t="n">
+        <v>0.73959344626015</v>
+      </c>
+      <c r="E33" t="n">
         <v>0.1379522506671373</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.136</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9882264562036049</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.9949394912036222</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3723022077765162</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.9580503926351426</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1018,13 +2028,43 @@
         <v>0.9799070533960385</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215360002275818</v>
+        <v>0.681973790818083</v>
       </c>
       <c r="D34" t="n">
+        <v>0.7109132674150538</v>
+      </c>
+      <c r="E34" t="n">
         <v>0.1295083108628162</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
+        <v>0.8571428571428577</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.128</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9877468191166027</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.994544214560058</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3832166305801797</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9596354928650028</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1035,13 +2075,43 @@
         <v>0.9761416980404705</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6121963543703368</v>
       </c>
       <c r="D35" t="n">
+        <v>0.6331651798541028</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.1752098500836261</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
+        <v>0.8571428571428577</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.1200000000000001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.9883507178259182</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.9950554034629149</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.3705152434098531</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9575220698412108</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1052,13 +2122,43 @@
         <v>0.9765883249322783</v>
       </c>
       <c r="C36" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6119296885450765</v>
       </c>
       <c r="D36" t="n">
+        <v>0.6701987366004305</v>
+      </c>
+      <c r="E36" t="n">
         <v>0.2040944967105582</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
+        <v>0.8571428571428577</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.112</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9889671075560621</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.9955769882484943</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2910385964014466</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9553663852445861</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1069,13 +2169,43 @@
         <v>0.9772564353995354</v>
       </c>
       <c r="C37" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6116650326520617</v>
       </c>
       <c r="D37" t="n">
+        <v>0.7259105057379209</v>
+      </c>
+      <c r="E37" t="n">
         <v>0.2635641761266297</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.104</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9898953161356167</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.9963593966985757</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.2342588880723614</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9521466689884892</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1086,13 +2216,43 @@
         <v>0.9780167036759713</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.5113939431102147</v>
       </c>
       <c r="D38" t="n">
+        <v>0.6594441885051909</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.2653747060191037</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
+        <v>0.8095238095238084</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.104</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9952161574325538</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.07870096975326518</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9391826878446033</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1103,13 +2263,43 @@
         <v>0.9725405590517773</v>
       </c>
       <c r="C39" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5111881705549726</v>
       </c>
       <c r="D39" t="n">
+        <v>0.1966865862444308</v>
+      </c>
+      <c r="E39" t="n">
         <v>0.1690952606569107</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
+        <v>0.7857142857142865</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.104</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.9874821503751824</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.9935431123442376</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.4991270461619542</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.965489893197179</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1120,13 +2310,43 @@
         <v>0.9723047912856326</v>
       </c>
       <c r="C40" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5109811800461891</v>
       </c>
       <c r="D40" t="n">
+        <v>0.1757469314324279</v>
+      </c>
+      <c r="E40" t="n">
         <v>0.1668454958508367</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
+        <v>0.7857142857142865</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.104</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.9871238551705458</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.9932568193495316</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5066174053952723</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9666207178331913</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1137,13 +2357,43 @@
         <v>0.9765106636494009</v>
       </c>
       <c r="C41" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5891417378715762</v>
       </c>
       <c r="D41" t="n">
+        <v>0.443907302697903</v>
+      </c>
+      <c r="E41" t="n">
         <v>0.083009862159541</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
+        <v>0.7857142857142865</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.09599999999999997</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.9885094480796723</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.9944293613599164</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.4289422565245661</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9617994349538268</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1154,13 +2404,43 @@
         <v>0.9750891727310512</v>
       </c>
       <c r="C42" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5889862432021251</v>
       </c>
       <c r="D42" t="n">
+        <v>0.3243688600069454</v>
+      </c>
+      <c r="E42" t="n">
         <v>0.1249713781785807</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
+        <v>0.7619047619047628</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.08800000000000002</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9864930956047717</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.9927555752900797</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5349905266530876</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9685919911023991</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1171,13 +2451,43 @@
         <v>0.9754748838642071</v>
       </c>
       <c r="C43" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5888315611359937</v>
       </c>
       <c r="D43" t="n">
+        <v>0.3571944143864418</v>
+      </c>
+      <c r="E43" t="n">
         <v>0.1912991651408806</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
+        <v>0.7619047619047628</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.08000000000000007</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9870204325783941</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.9932097679041154</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5101022712614719</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9667021880574344</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1188,13 +2498,43 @@
         <v>0.9741300745539093</v>
       </c>
       <c r="C44" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5705698909685493</v>
       </c>
       <c r="D44" t="n">
+        <v>0.3676154579711343</v>
+      </c>
+      <c r="E44" t="n">
         <v>0.1831784405348231</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
+        <v>0.7380952380952372</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.07200000000000001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.988364039323924</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.9943467279101511</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.4545412938591608</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9620265158749708</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1205,13 +2545,43 @@
         <v>0.9748391368862269</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5703774731683964</v>
       </c>
       <c r="D45" t="n">
+        <v>0.4268807246188474</v>
+      </c>
+      <c r="E45" t="n">
         <v>0.149482621765133</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
+        <v>0.7142857142857135</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.07200000000000001</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.9893362769262525</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.9951728417453228</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3796449961608567</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9586193262337169</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1222,13 +2592,43 @@
         <v>0.9761395540191427</v>
       </c>
       <c r="C46" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5701856065426008</v>
       </c>
       <c r="D46" t="n">
+        <v>0.536003912331587</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.145109971708975</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
+        <v>0.7142857142857135</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.06400000000000006</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9911410402737811</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.9966953274958198</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.2738033829246919</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9523708961543608</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1239,13 +2639,43 @@
         <v>0.9770087888009468</v>
       </c>
       <c r="C47" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5755803432643088</v>
       </c>
       <c r="D47" t="n">
+        <v>0.7291983875000105</v>
+      </c>
+      <c r="E47" t="n">
         <v>0.1614241708617046</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
+        <v>0.7142857142857135</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.07200000000000001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9894756232944614</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.9953144102819887</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.4264502145385787</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9579696750175393</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1256,13 +2686,43 @@
         <v>0.9763436407150777</v>
       </c>
       <c r="C48" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5754829960714624</v>
       </c>
       <c r="D48" t="n">
+        <v>0.672993869294269</v>
+      </c>
+      <c r="E48" t="n">
         <v>0.2224532833774911</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
+        <v>0.7380952380952372</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.07200000000000001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9885228401967635</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.994529564661311</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.4361074937639563</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9611364394003525</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1273,13 +2733,43 @@
         <v>0.9775798155610621</v>
       </c>
       <c r="C49" t="n">
-        <v>0.215360002275818</v>
+        <v>0.57538596569901</v>
       </c>
       <c r="D49" t="n">
+        <v>0.7770921040554497</v>
+      </c>
+      <c r="E49" t="n">
         <v>0.2628827296799814</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
+        <v>0.7857142857142865</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.08000000000000007</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9902462170590456</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.995983538789411</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.3291286649421136</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9551682272165031</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1290,13 +2780,43 @@
         <v>0.9727305563387028</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4138077661120655</v>
+        <v>0.5283616287241387</v>
       </c>
       <c r="D50" t="n">
+        <v>0.3846664312501693</v>
+      </c>
+      <c r="E50" t="n">
         <v>0.2737395635423666</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
+        <v>0.8095238095238084</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.08800000000000002</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9862580144160572</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.9945601939295353</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.3582333302100829</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9607309983917958</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1307,13 +2827,43 @@
         <v>0.9737171894557831</v>
       </c>
       <c r="C51" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5280995508365376</v>
       </c>
       <c r="D51" t="n">
+        <v>0.4663493197552263</v>
+      </c>
+      <c r="E51" t="n">
         <v>0.1689652356730628</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.08800000000000002</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9876417060496502</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.9957163176130122</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.317139331932879</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9559797406527168</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1324,13 +2874,43 @@
         <v>0.9711555785576504</v>
       </c>
       <c r="C52" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5278364294504164</v>
       </c>
       <c r="D52" t="n">
+        <v>0.2488760373261313</v>
+      </c>
+      <c r="E52" t="n">
         <v>0.1445183292487055</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
+        <v>0.8571428571428577</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.08800000000000002</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.9840315437638358</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.9926944422787475</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.527342817213182</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.9682764402574415</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1341,13 +2921,43 @@
         <v>0.9757383677804796</v>
       </c>
       <c r="C53" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6064991276756981</v>
       </c>
       <c r="D53" t="n">
+        <v>0.5131980176537548</v>
+      </c>
+      <c r="E53" t="n">
         <v>0.09419740478647749</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.08800000000000002</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.9828106515348004</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.9916715156983025</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5600276253743403</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9724172516696103</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1358,13 +2968,43 @@
         <v>0.9773061333935166</v>
       </c>
       <c r="C54" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6064164483856694</v>
       </c>
       <c r="D54" t="n">
+        <v>0.6459729831648208</v>
+      </c>
+      <c r="E54" t="n">
         <v>0.1380116690050505</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.08800000000000002</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.9850353229317415</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.9935312652277706</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4911291353516724</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9647954030113071</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1375,13 +3015,43 @@
         <v>0.9769208839457865</v>
       </c>
       <c r="C55" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6063340807090485</v>
       </c>
       <c r="D55" t="n">
+        <v>0.6140783314949133</v>
+      </c>
+      <c r="E55" t="n">
         <v>0.1823487370934807</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
+        <v>0.8095238095238084</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.08800000000000002</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.9845110630755698</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.9930911864646972</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5104932049111612</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9665581937920824</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1392,13 +3062,43 @@
         <v>0.9763169668325875</v>
       </c>
       <c r="C56" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5959506776646709</v>
       </c>
       <c r="D56" t="n">
+        <v>0.5904297978022126</v>
+      </c>
+      <c r="E56" t="n">
         <v>0.18296308497712</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
+        <v>0.8095238095238084</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.08800000000000002</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.9863334209401927</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.9946143716631008</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3560972505717873</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9603096985690595</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1409,13 +3109,43 @@
         <v>0.9753665459188885</v>
       </c>
       <c r="C57" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5957873522017386</v>
       </c>
       <c r="D57" t="n">
+        <v>0.509857169452526</v>
+      </c>
+      <c r="E57" t="n">
         <v>0.1551586188250852</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
+        <v>0.7857142857142865</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.08800000000000002</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.9849949581463794</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.9934931291209858</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.4669182200412889</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.9648524551104239</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1426,13 +3156,43 @@
         <v>0.9751547634910992</v>
       </c>
       <c r="C58" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5956249375540242</v>
       </c>
       <c r="D58" t="n">
+        <v>0.4915639214985572</v>
+      </c>
+      <c r="E58" t="n">
         <v>0.1363577689893783</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
+        <v>0.8095238095238084</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.09599999999999997</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.9846960834415817</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.9932416493016706</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5033182562553414</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9658462222735239</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1443,13 +3203,43 @@
         <v>0.9751118661929847</v>
       </c>
       <c r="C59" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5875126958257888</v>
       </c>
       <c r="D59" t="n">
+        <v>0.4510322548753192</v>
+      </c>
+      <c r="E59" t="n">
         <v>0.1654611627616233</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
+        <v>0.8095238095238084</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.104</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.984105618644364</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.9927462276655568</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.4901319569909405</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9678357228058145</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1460,13 +3250,43 @@
         <v>0.9766982629230266</v>
       </c>
       <c r="C60" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5873881690096119</v>
       </c>
       <c r="D60" t="n">
+        <v>0.5845125018254348</v>
+      </c>
+      <c r="E60" t="n">
         <v>0.2024467107107472</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
+        <v>0.8095238095238084</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.112</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.9863403065928185</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.9946144263738831</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.4353786391004341</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9601796615295174</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1477,13 +3297,43 @@
         <v>0.9754355224634735</v>
       </c>
       <c r="C61" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5872642349280858</v>
       </c>
       <c r="D61" t="n">
+        <v>0.4777786119674271</v>
+      </c>
+      <c r="E61" t="n">
         <v>0.2860084457104284</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.112</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.9845650168676219</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.9931277663628021</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.4986856164755484</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9662146507041421</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1494,13 +3344,43 @@
         <v>0.9742125841415001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3445788499275424</v>
+        <v>0.6320815888347541</v>
       </c>
       <c r="D62" t="n">
+        <v>0.4010770475206787</v>
+      </c>
+      <c r="E62" t="n">
         <v>0.2419506103579556</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.112</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.9841740092066628</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.9913322245937308</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5700337409100718</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9741675116419231</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1511,13 +3391,43 @@
         <v>0.9761065979257731</v>
       </c>
       <c r="C63" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6317420839650612</v>
       </c>
       <c r="D63" t="n">
+        <v>0.5606701468623018</v>
+      </c>
+      <c r="E63" t="n">
         <v>0.17230353477092</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.104</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.9868326091713897</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.9935648575204122</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.454856946818932</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.9650207628940169</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1528,13 +3438,43 @@
         <v>0.9779174574169621</v>
       </c>
       <c r="C64" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6314055211198135</v>
       </c>
       <c r="D64" t="n">
+        <v>0.7132537530227248</v>
+      </c>
+      <c r="E64" t="n">
         <v>0.1597207724421225</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
+        <v>0.8571428571428577</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.09599999999999997</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.9893742536617653</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.9956995538582534</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.3578150554331625</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9562735189784204</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1545,13 +3485,43 @@
         <v>0.9751042222805468</v>
       </c>
       <c r="C65" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6115366252210331</v>
       </c>
       <c r="D65" t="n">
+        <v>0.5089271241141211</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.09910900152965124</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
+        <v>0.8809523809523814</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.09599999999999997</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.9859806921479731</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.9928685897783471</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.4379823293781138</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.967792310613265</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1562,13 +3532,43 @@
         <v>0.9772623459779763</v>
       </c>
       <c r="C66" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6113501147847336</v>
       </c>
       <c r="D66" t="n">
+        <v>0.6905850641747788</v>
+      </c>
+      <c r="E66" t="n">
         <v>0.1215140966279203</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
+        <v>0.8809523809523814</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.08800000000000002</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.9890077880471994</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.9954092574896218</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.3433451879440547</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.9573885046215503</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1579,13 +3579,43 @@
         <v>0.9761743278496663</v>
       </c>
       <c r="C67" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6111648209266725</v>
       </c>
       <c r="D67" t="n">
+        <v>0.5985557529391468</v>
+      </c>
+      <c r="E67" t="n">
         <v>0.1900837663126188</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
+        <v>0.8809523809523814</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.08800000000000002</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.9874662699977415</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.9941275999899872</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.410549347079741</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9625847141759466</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1596,13 +3626,43 @@
         <v>0.9769698755658672</v>
       </c>
       <c r="C68" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5591786686226746</v>
       </c>
       <c r="D68" t="n">
+        <v>0.5403601930126487</v>
+      </c>
+      <c r="E68" t="n">
         <v>0.2088894503617911</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
+        <v>0.9047619047619051</v>
+      </c>
+      <c r="G68" t="n">
         <v>0.08800000000000002</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9883064788731455</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.9948384844569076</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.3952852113377378</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9596490326494385</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1613,13 +3673,43 @@
         <v>0.9751171954487071</v>
       </c>
       <c r="C69" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5590866301735247</v>
       </c>
       <c r="D69" t="n">
+        <v>0.3838084294162244</v>
+      </c>
+      <c r="E69" t="n">
         <v>0.1213898387813569</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
+        <v>0.8809523809523814</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.08000000000000007</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.9856905035682683</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.9926577391510704</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5609150233935125</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9685152302080455</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1630,13 +3720,43 @@
         <v>0.9739085615098273</v>
       </c>
       <c r="C70" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5589946716744203</v>
       </c>
       <c r="D70" t="n">
+        <v>0.2815594151638431</v>
+      </c>
+      <c r="E70" t="n">
         <v>0.1581620429091539</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
+        <v>0.8809523809523814</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.08000000000000007</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.9839810668478675</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.9912353509217456</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.6199503001817661</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.9742869427779088</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1647,13 +3767,43 @@
         <v>0.9748704150437959</v>
       </c>
       <c r="C71" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6088073086361304</v>
       </c>
       <c r="D71" t="n">
+        <v>0.2713921123122702</v>
+      </c>
+      <c r="E71" t="n">
         <v>0.1442365325706504</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.07200000000000001</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.986752241764576</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.9935614978994777</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.4163665091399184</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9647592257847142</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1664,13 +3814,43 @@
         <v>0.9747060334064533</v>
       </c>
       <c r="C72" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6076905561158865</v>
       </c>
       <c r="D72" t="n">
+        <v>0.2558536549207199</v>
+      </c>
+      <c r="E72" t="n">
         <v>0.2100660757199356</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
+        <v>0.8095238095238084</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.06400000000000006</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.9865059213609575</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.9933630388133402</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5054531287823583</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.9655357433002423</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1681,13 +3861,43 @@
         <v>0.9748850994640388</v>
       </c>
       <c r="C73" t="n">
-        <v>0.215360002275818</v>
+        <v>0.606583567160058</v>
       </c>
       <c r="D73" t="n">
+        <v>0.2692685928373525</v>
+      </c>
+      <c r="E73" t="n">
         <v>0.2814203834674408</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
+        <v>0.7619047619047628</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.05599999999999999</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.9867431136142718</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.9935690235781089</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.4790655403947179</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.9646616633608113</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1698,13 +3908,43 @@
         <v>0.9759411273134428</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4654572420172691</v>
+        <v>0.5886569991455103</v>
       </c>
       <c r="D74" t="n">
+        <v>0.3006201486740112</v>
+      </c>
+      <c r="E74" t="n">
         <v>0.2745274065641879</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
+        <v>0.7619047619047628</v>
+      </c>
+      <c r="G74" t="n">
         <v>0.05599999999999999</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.9832338066456731</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.9916069074066035</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5579617292651852</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.9735329438710333</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1715,13 +3955,43 @@
         <v>0.9768940374639145</v>
       </c>
       <c r="C75" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5882110994000611</v>
       </c>
       <c r="D75" t="n">
+        <v>0.3810154204836248</v>
+      </c>
+      <c r="E75" t="n">
         <v>0.1454165311204912</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
+        <v>0.7619047619047628</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.04800000000000004</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.9845947609863446</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.9927463995263224</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5115782435314746</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9688438384149842</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1732,13 +4002,43 @@
         <v>0.9777752562476026</v>
       </c>
       <c r="C76" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5877677088915443</v>
       </c>
       <c r="D76" t="n">
+        <v>0.455357393202427</v>
+      </c>
+      <c r="E76" t="n">
         <v>0.1343555439097706</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
+        <v>0.7857142857142865</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.04800000000000004</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.9858545668181776</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.9938012596485519</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4066752155894716</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.9645001110870208</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1749,13 +4049,43 @@
         <v>0.9755829581579756</v>
       </c>
       <c r="C77" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6208687397154713</v>
       </c>
       <c r="D77" t="n">
+        <v>0.5061420962354082</v>
+      </c>
+      <c r="E77" t="n">
         <v>0.1127349582756867</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
+        <v>0.8095238095238084</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.04800000000000004</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.9851735046018627</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.9932323233217818</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.4864555798421895</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9667848214319522</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1766,13 +4096,43 @@
         <v>0.9756263268884713</v>
       </c>
       <c r="C78" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6204066414298222</v>
       </c>
       <c r="D78" t="n">
+        <v>0.5090011391653455</v>
+      </c>
+      <c r="E78" t="n">
         <v>0.106360695108815</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.04800000000000004</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.9852343054633506</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.9932840440338974</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.4990037387758953</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9665362728472044</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1783,13 +4143,43 @@
         <v>0.9762736595955163</v>
       </c>
       <c r="C79" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6199488026253891</v>
       </c>
       <c r="D79" t="n">
+        <v>0.5627895205328503</v>
+      </c>
+      <c r="E79" t="n">
         <v>0.1868039274756897</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
+        <v>0.8095238095238084</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.04800000000000004</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.9861451464392749</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.9940469259653695</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.443536424040789</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.9633848452105244</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1800,13 +4190,43 @@
         <v>0.9770126792185133</v>
       </c>
       <c r="C80" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5777405035374502</v>
       </c>
       <c r="D80" t="n">
+        <v>0.6705520929101567</v>
+      </c>
+      <c r="E80" t="n">
         <v>0.2043982190107791</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
+        <v>0.8095238095238084</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.04800000000000004</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.9864068182187189</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.9942666857704614</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.4183183667114636</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9624506699879065</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1817,13 +4237,43 @@
         <v>0.9771221425362023</v>
       </c>
       <c r="C81" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5777104063745025</v>
       </c>
       <c r="D81" t="n">
+        <v>0.679419294024898</v>
+      </c>
+      <c r="E81" t="n">
         <v>0.1191389849082265</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
+        <v>0.7857142857142865</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.04000000000000004</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.9865658982252246</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.9944006066130235</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.4596972479140294</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.9618671054426999</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1834,13 +4284,43 @@
         <v>0.9758978113211385</v>
       </c>
       <c r="C82" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5776803704462772</v>
       </c>
       <c r="D82" t="n">
+        <v>0.5758347925692626</v>
+      </c>
+      <c r="E82" t="n">
         <v>0.137470323894188</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
+        <v>0.7857142857142865</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.04800000000000004</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.9848477026689362</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.9929639351879977</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.4715287686595205</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.9676953519512914</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1851,13 +4331,43 @@
         <v>0.9759053570429826</v>
       </c>
       <c r="C83" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5832293342772065</v>
       </c>
       <c r="D83" t="n">
+        <v>0.6710827234922836</v>
+      </c>
+      <c r="E83" t="n">
         <v>0.1694524978894166</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
+        <v>0.8095238095238084</v>
+      </c>
+      <c r="G83" t="n">
         <v>0.04800000000000004</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.9854056581759286</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.9934315523232335</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.4961603152117828</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.9657500705502127</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1868,13 +4378,43 @@
         <v>0.977027618348596</v>
       </c>
       <c r="C84" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5832033140001555</v>
       </c>
       <c r="D84" t="n">
+        <v>0.7650666575749947</v>
+      </c>
+      <c r="E84" t="n">
         <v>0.2250242206944791</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
+        <v>0.8095238095238084</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.04800000000000004</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.986986313513852</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.9947547832463135</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.3415997683456339</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9603119476597124</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1885,13 +4425,43 @@
         <v>0.9772029673527884</v>
       </c>
       <c r="C85" t="n">
-        <v>0.215360002275818</v>
+        <v>0.583177386405215</v>
       </c>
       <c r="D85" t="n">
+        <v>0.7792202172534984</v>
+      </c>
+      <c r="E85" t="n">
         <v>0.2739362002180613</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G85" t="n">
         <v>0.04800000000000004</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.9872342438132705</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.9949630093453868</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.3600564217250121</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.9594258489978714</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1902,13 +4472,43 @@
         <v>0.977611651818084</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7654768705706247</v>
+        <v>0.577718093339725</v>
       </c>
       <c r="D86" t="n">
+        <v>0.7210065522072906</v>
+      </c>
+      <c r="E86" t="n">
         <v>0.2569575735088166</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.04000000000000004</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.9854520813487391</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.9951176476225168</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.3647174717258458</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.9580397579119233</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1919,13 +4519,43 @@
         <v>0.9761371681622681</v>
       </c>
       <c r="C87" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5777008373578733</v>
       </c>
       <c r="D87" t="n">
+        <v>0.5966518012145409</v>
+      </c>
+      <c r="E87" t="n">
         <v>0.1759188777327175</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G87" t="n">
         <v>0.02400000000000002</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.9833885210573409</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.9933851481098731</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5038792710841919</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.9650809838276905</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1936,13 +4566,43 @@
         <v>0.975108103096898</v>
       </c>
       <c r="C88" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5776836050499021</v>
       </c>
       <c r="D88" t="n">
+        <v>0.5098514897370877</v>
+      </c>
+      <c r="E88" t="n">
         <v>0.1496155860096792</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.01599999999999996</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.9819517714323264</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.9921770950054438</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5913563343395413</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.9699815938231239</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1953,13 +4613,43 @@
         <v>0.9759518852824897</v>
       </c>
       <c r="C89" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6449519879619745</v>
       </c>
       <c r="D89" t="n">
+        <v>0.4403394472195311</v>
+      </c>
+      <c r="E89" t="n">
         <v>0.09502596549617809</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
+        <v>0.8571428571428577</v>
+      </c>
+      <c r="G89" t="n">
         <v>0.008000000000000007</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.981511110959066</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.9918024373267824</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5446092017417534</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9714802479258705</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1970,12 +4660,42 @@
         <v>0.9780128001392531</v>
       </c>
       <c r="C90" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6445040166814995</v>
       </c>
       <c r="D90" t="n">
+        <v>0.6148804347991813</v>
+      </c>
+      <c r="E90" t="n">
         <v>0.1445363341104267</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
+        <v>0.8809523809523814</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.9844360878382766</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.994243609486839</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.4097728513891348</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.9614828871109893</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1987,13 +4707,43 @@
         <v>0.9779708404352975</v>
       </c>
       <c r="C91" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6440604809352528</v>
       </c>
       <c r="D91" t="n">
+        <v>0.6121106913918224</v>
+      </c>
+      <c r="E91" t="n">
         <v>0.1645569563753282</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
+        <v>0.8809523809523814</v>
+      </c>
+      <c r="G91" t="n">
         <v>0.008000000000000007</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.9844011747828609</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.9942084866073337</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.38649153885636</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9615954132079207</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2004,13 +4754,43 @@
         <v>0.9774679050351378</v>
       </c>
       <c r="C92" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6149417954909835</v>
       </c>
       <c r="D92" t="n">
+        <v>0.558429278283233</v>
+      </c>
+      <c r="E92" t="n">
         <v>0.1942277978999947</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
+        <v>0.9047619047619051</v>
+      </c>
+      <c r="G92" t="n">
         <v>0.01599999999999996</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.983506784975262</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.9934543365820522</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4792752537025191</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.9646437228756978</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2021,13 +4801,43 @@
         <v>0.9784086382868481</v>
       </c>
       <c r="C93" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6147440434830359</v>
       </c>
       <c r="D93" t="n">
+        <v>0.6386130294796505</v>
+      </c>
+      <c r="E93" t="n">
         <v>0.1337581902387528</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
+        <v>0.9047619047619051</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.02400000000000002</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.9848564297745159</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.9945776491427093</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.4312301472581591</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.9600269790545484</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2038,13 +4848,43 @@
         <v>0.9780962115293881</v>
       </c>
       <c r="C94" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6145475979016207</v>
       </c>
       <c r="D94" t="n">
+        <v>0.6131271373351448</v>
+      </c>
+      <c r="E94" t="n">
         <v>0.1387621408773441</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
+        <v>0.928571428571427</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.03199999999999997</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.9844420826869009</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.9942251896235128</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.4565441355295847</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.9614356136961584</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2055,13 +4895,43 @@
         <v>0.9750657917737422</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5192966121937826</v>
       </c>
       <c r="D95" t="n">
+        <v>0.4485300390016729</v>
+      </c>
+      <c r="E95" t="n">
         <v>0.2030946725965444</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
+        <v>0.928571428571427</v>
+      </c>
+      <c r="G95" t="n">
         <v>0.03199999999999997</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.982870945789446</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.992904961071824</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5099701165816628</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.9667957063588241</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2072,13 +4942,43 @@
         <v>0.9764059142708084</v>
       </c>
       <c r="C96" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5192646065618958</v>
       </c>
       <c r="D96" t="n">
+        <v>0.5611684263625846</v>
+      </c>
+      <c r="E96" t="n">
         <v>0.2262252596066382</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
+        <v>0.9523809523809526</v>
+      </c>
+      <c r="G96" t="n">
         <v>0.03199999999999997</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.9847628548009759</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.9944820553398047</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4682875810744797</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.9603266245918292</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2089,13 +4989,43 @@
         <v>0.9746567744090838</v>
       </c>
       <c r="C97" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5192325074615042</v>
       </c>
       <c r="D97" t="n">
+        <v>0.413339586677237</v>
+      </c>
+      <c r="E97" t="n">
         <v>0.2537202051310913</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
+        <v>0.9761904761904763</v>
+      </c>
+      <c r="G97" t="n">
         <v>0.04000000000000004</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.9823068041725995</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.9924215522164958</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4666626050633214</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.9687096497014823</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2106,13 +5036,43 @@
         <v>0.9687492721991235</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7215693408305414</v>
+        <v>0.4914577036004193</v>
       </c>
       <c r="D98" t="n">
+        <v>0.4814472967572312</v>
+      </c>
+      <c r="E98" t="n">
         <v>0.2571780136892748</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
+        <v>0.9761904761904763</v>
+      </c>
+      <c r="G98" t="n">
         <v>0.04800000000000004</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.9883215050519386</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.9865083915589568</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.4562957516250217</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.9664542322535288</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2123,13 +5083,43 @@
         <v>0.9693762809288317</v>
       </c>
       <c r="C99" t="n">
-        <v>0.215360002275818</v>
+        <v>0.4913290534242605</v>
       </c>
       <c r="D99" t="n">
+        <v>0.5349437267474044</v>
+      </c>
+      <c r="E99" t="n">
         <v>0.1721374263549576</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
+        <v>0.9523809523809526</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.05599999999999999</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.9891939681795874</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.9872570028610642</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.439059555797408</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.9633423732977117</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.5441040952486269</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.4666911135558001</v>
       </c>
     </row>
     <row r="100">
@@ -2140,13 +5130,43 @@
         <v>0.9722820910567799</v>
       </c>
       <c r="C100" t="n">
-        <v>0.215360002275818</v>
+        <v>0.4911998316853928</v>
       </c>
       <c r="D100" t="n">
+        <v>0.7806011297264261</v>
+      </c>
+      <c r="E100" t="n">
         <v>0.1668594192314168</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
+        <v>0.7380952380952372</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.07200000000000001</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.9932743947864316</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.9906890338600148</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.2262743642876197</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.9492734477251853</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.6712005602860407</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.4906490649064907</v>
       </c>
     </row>
     <row r="101">
@@ -2157,13 +5177,43 @@
         <v>0.9533183092265771</v>
       </c>
       <c r="C101" t="n">
-        <v>0.215360002275818</v>
+        <v>0.0284564655088968</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0.9268753857417964</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.9970372313509205</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.993854905885585</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.9362916290410209</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.6210697040067823</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.6535875809803203</v>
       </c>
     </row>
     <row r="102">
@@ -2174,13 +5224,43 @@
         <v>0.9469724035184119</v>
       </c>
       <c r="C102" t="n">
-        <v>0.215360002275818</v>
+        <v>0.01462707262405982</v>
       </c>
       <c r="D102" t="n">
+        <v>0.4573112876312398</v>
+      </c>
+      <c r="E102" t="n">
         <v>0.1090229549462748</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
+        <v>0.3095238095238102</v>
+      </c>
+      <c r="G102" t="n">
         <v>0.7040000000000002</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.9891833107687091</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.9873014108428856</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.3522132825430839</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.9629923664167638</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.5085333038445943</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.3832049871653832</v>
       </c>
     </row>
     <row r="103">
@@ -2191,13 +5271,43 @@
         <v>0.9439452679743678</v>
       </c>
       <c r="C103" t="n">
-        <v>0.215360002275818</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
+        <v>0.2717889259991262</v>
+      </c>
+      <c r="E103" t="n">
         <v>0.06877082408492553</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
+        <v>0.3095238095238102</v>
+      </c>
+      <c r="G103" t="n">
         <v>0.5680000000000001</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.9860710793971894</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.9847145106646739</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.6138188260274466</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.9734976021779451</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.5180434221681595</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.3836939249480504</v>
       </c>
     </row>
     <row r="104">
@@ -2208,13 +5318,43 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.215360002275818</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
+        <v>0.7247803157663883</v>
+      </c>
+      <c r="E104" t="n">
         <v>0.1364115857246527</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
+        <v>0.4285714285714288</v>
+      </c>
+      <c r="G104" t="n">
         <v>0.4800000000000001</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.9867909477587877</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.9853332187584911</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.6223428498919439</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.9709144307873941</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.6380625898485015</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.5054394328321722</v>
       </c>
     </row>
     <row r="105">
@@ -2225,13 +5365,43 @@
         <v>0.9990364019711633</v>
       </c>
       <c r="C105" t="n">
-        <v>0.215360002275818</v>
+        <v>0.9916821925595511</v>
       </c>
       <c r="D105" t="n">
+        <v>0.7149369241461703</v>
+      </c>
+      <c r="E105" t="n">
         <v>0.1104617862185706</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
+        <v>0.4285714285714288</v>
+      </c>
+      <c r="G105" t="n">
         <v>0.3600000000000001</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.9866221048194073</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.9852079708687205</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.568632768710604</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.9713683439790582</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.4770172140513841</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.4440777411074441</v>
       </c>
     </row>
     <row r="106">
@@ -2242,13 +5412,43 @@
         <v>0.9992984025575418</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215360002275818</v>
+        <v>0.9837001786846915</v>
       </c>
       <c r="D106" t="n">
+        <v>0.8040275747825645</v>
+      </c>
+      <c r="E106" t="n">
         <v>0.09903959970282111</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G106" t="n">
         <v>0.296</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.9881048733731591</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.9864640789937477</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.4905468607131919</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.9661813748160424</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.5236462825758412</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.434298985454101</v>
       </c>
     </row>
     <row r="107">
@@ -2259,13 +5459,43 @@
         <v>0.9789026330149179</v>
       </c>
       <c r="C107" t="n">
-        <v>0.215360002275818</v>
+        <v>0.792765884860704</v>
       </c>
       <c r="D107" t="n">
+        <v>0.6887702908180721</v>
+      </c>
+      <c r="E107" t="n">
         <v>0.02611376900446605</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
+        <v>0.4761904761904763</v>
+      </c>
+      <c r="G107" t="n">
         <v>0.232</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.9899098665256432</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.987989343153086</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.4091997879257664</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.9598946761274347</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.7444063548232518</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.6258403618139592</v>
       </c>
     </row>
     <row r="108">
@@ -2276,13 +5506,43 @@
         <v>0.9790115544013338</v>
       </c>
       <c r="C108" t="n">
-        <v>0.215360002275818</v>
+        <v>0.7897890591978083</v>
       </c>
       <c r="D108" t="n">
+        <v>0.6990146242884326</v>
+      </c>
+      <c r="E108" t="n">
         <v>0.1400991677601175</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G108" t="n">
         <v>0.2080000000000001</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.9900620885586653</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.9881314288141518</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.4466437111373774</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.9592553680439437</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -2293,13 +5553,43 @@
         <v>0.9753531803225508</v>
       </c>
       <c r="C109" t="n">
-        <v>0.215360002275818</v>
+        <v>0.7868875028975226</v>
       </c>
       <c r="D109" t="n">
+        <v>0.3916009234947614</v>
+      </c>
+      <c r="E109" t="n">
         <v>0.1736382242889469</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
+        <v>0.4761904761904763</v>
+      </c>
+      <c r="G109" t="n">
         <v>0.1840000000000001</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.984912110293397</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.9838371231804259</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.5321018246348093</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.9767310302830582</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.4971064174868222</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.5697347512529031</v>
       </c>
     </row>
     <row r="110">
@@ -2310,13 +5600,43 @@
         <v>0.9762489805291191</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8572877445962186</v>
+        <v>0.6557762903027968</v>
       </c>
       <c r="D110" t="n">
+        <v>0.8328327431024451</v>
+      </c>
+      <c r="E110" t="n">
         <v>0.1656437239102374</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
+        <v>0.4523809523809526</v>
+      </c>
+      <c r="G110" t="n">
         <v>0.168</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.9997279293702654</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.9962193974474518</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.4943928131909315</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.9747526090468045</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.2615651148217774</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2327,13 +5647,43 @@
         <v>0.9766579845622817</v>
       </c>
       <c r="C111" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6546495745951436</v>
       </c>
       <c r="D111" t="n">
+        <v>0.8598061585381083</v>
+      </c>
+      <c r="E111" t="n">
         <v>0.2634790878081588</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
+        <v>0.4523809523809526</v>
+      </c>
+      <c r="G111" t="n">
         <v>0.152</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.9966728730095289</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.5855552089591999</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.9726478689356843</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.257068082126138</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.158049138247158</v>
       </c>
     </row>
     <row r="112">
@@ -2344,13 +5694,43 @@
         <v>0.9743855827245149</v>
       </c>
       <c r="C112" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6535387049973126</v>
       </c>
       <c r="D112" t="n">
+        <v>0.6608812519236347</v>
+      </c>
+      <c r="E112" t="n">
         <v>0.1892766993709362</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
+        <v>0.4761904761904763</v>
+      </c>
+      <c r="G112" t="n">
         <v>0.1440000000000001</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.9965089432547702</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.9939695621688048</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.6801679785195373</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.9834387148438586</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.5219506800840429</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.4254981053660922</v>
       </c>
     </row>
     <row r="113">
@@ -2361,13 +5741,43 @@
         <v>0.9781795556354655</v>
       </c>
       <c r="C113" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6345994644567301</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>0.8323135756074994</v>
       </c>
       <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.5238095238095237</v>
+      </c>
+      <c r="G113" t="n">
         <v>0.136</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.9969284155647277</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.9945298943354051</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.681290936005489</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.9809057856832755</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.5846511113568506</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.469624740251803</v>
       </c>
     </row>
     <row r="114">
@@ -2378,13 +5788,43 @@
         <v>0.9783171127980499</v>
       </c>
       <c r="C114" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6342062216373704</v>
       </c>
       <c r="D114" t="n">
+        <v>0.8413802802410102</v>
+      </c>
+      <c r="E114" t="n">
         <v>0.1197653227964232</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
+        <v>0.5476190476190474</v>
+      </c>
+      <c r="G114" t="n">
         <v>0.1200000000000001</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.9969184440919454</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.9947233281900625</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.7097890436050871</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.979874732390936</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.4675808175752884</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.4588681090331256</v>
       </c>
     </row>
     <row r="115">
@@ -2395,13 +5835,43 @@
         <v>0.9778252335453235</v>
       </c>
       <c r="C115" t="n">
-        <v>0.215360002275818</v>
+        <v>0.6338166125250577</v>
       </c>
       <c r="D115" t="n">
+        <v>0.7974509729847267</v>
+      </c>
+      <c r="E115" t="n">
         <v>0.1257815211381746</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
+        <v>0.5476190476190474</v>
+      </c>
+      <c r="G115" t="n">
         <v>0.112</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.9960302850504508</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.9941748100673726</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.7918698206865462</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.9818776518647443</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.4596188580485826</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.4644908935337979</v>
       </c>
     </row>
     <row r="116">
@@ -2412,13 +5882,43 @@
         <v>0.9768661310348141</v>
       </c>
       <c r="C116" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5231279779420157</v>
       </c>
       <c r="D116" t="n">
+        <v>0.8132346374338766</v>
+      </c>
+      <c r="E116" t="n">
         <v>0.09779911877707675</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
+        <v>0.5476190476190474</v>
+      </c>
+      <c r="G116" t="n">
         <v>0.09599999999999997</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.9969500628693988</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.9951319797816416</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5933676549433829</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.9777341744656977</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.5899959452983891</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.4666911135558001</v>
       </c>
     </row>
     <row r="117">
@@ -2429,13 +5929,43 @@
         <v>0.9773641479282602</v>
       </c>
       <c r="C117" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5231033436560443</v>
       </c>
       <c r="D117" t="n">
+        <v>0.8504918557035281</v>
+      </c>
+      <c r="E117" t="n">
         <v>0.1043110152470941</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
+        <v>0.5238095238095237</v>
+      </c>
+      <c r="G117" t="n">
         <v>0.08000000000000007</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.9974296562989586</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.9957143282520855</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.5369842896455852</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.9751247411652975</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.7870175826606214</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.5522552255225524</v>
       </c>
     </row>
     <row r="118">
@@ -2446,13 +5976,43 @@
         <v>0.9780358029643605</v>
       </c>
       <c r="C118" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5230786534738622</v>
       </c>
       <c r="D118" t="n">
+        <v>0.902515289123045</v>
+      </c>
+      <c r="E118" t="n">
         <v>0.169672385942518</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G118" t="n">
         <v>0.06400000000000006</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.9981611967570487</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.9965012231417043</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.5733056891296506</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.9716828912948247</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.7440377455859043</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0.6177728883999511</v>
       </c>
     </row>
     <row r="119">
@@ -2463,13 +6023,43 @@
         <v>0.9803143759465954</v>
       </c>
       <c r="C119" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5724713309079865</v>
       </c>
       <c r="D119" t="n">
+        <v>0.8067423549432469</v>
+      </c>
+      <c r="E119" t="n">
         <v>0.09602597416498385</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G119" t="n">
         <v>0.04800000000000004</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.994690765025195</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.9937666878061781</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.7869501147721993</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.9826292188753706</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.4060230749382579</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0.3894389438943895</v>
       </c>
     </row>
     <row r="120">
@@ -2480,13 +6070,43 @@
         <v>0.9798431943095912</v>
       </c>
       <c r="C120" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5724603119137459</v>
       </c>
       <c r="D120" t="n">
+        <v>0.7700349694691844</v>
+      </c>
+      <c r="E120" t="n">
         <v>0.1662955729824004</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G120" t="n">
         <v>0.04800000000000004</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.9939511145119843</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.993311127660908</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.7086646182002438</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.9842700119624287</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.6535073168933613</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0.6182618261826183</v>
       </c>
     </row>
     <row r="121">
@@ -2497,13 +6117,43 @@
         <v>0.9803358831469606</v>
       </c>
       <c r="C121" t="n">
-        <v>0.215360002275818</v>
+        <v>0.5724493204436508</v>
       </c>
       <c r="D121" t="n">
+        <v>0.8144983072210261</v>
+      </c>
+      <c r="E121" t="n">
         <v>0.2136791431542541</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G121" t="n">
         <v>0.04800000000000004</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.9945710482286508</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.9939876201445559</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.6505070675988471</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.981289234280188</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.7857643112536399</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0.7077374404107077</v>
       </c>
     </row>
     <row r="122">
@@ -2517,10 +6167,40 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
         <v>0.2939003323086821</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G122" t="n">
         <v>0.03199999999999997</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.9827548744517481</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.9931395973425402</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.6833060359507753</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.9807111507994541</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.5182645877105679</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0.3822271116000489</v>
       </c>
     </row>
     <row r="123">
@@ -2534,10 +6214,40 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
         <v>0.1772181753344442</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
+        <v>0.5238095238095237</v>
+      </c>
+      <c r="G123" t="n">
         <v>0.02400000000000002</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.9819359629034139</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.9924354650553383</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.7548506731960245</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.9834275684871278</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0.01307908568634641</v>
       </c>
     </row>
     <row r="124">
@@ -2551,10 +6261,40 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
         <v>0.1282999782239425</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
+        <v>0.5476190476190474</v>
+      </c>
+      <c r="G124" t="n">
         <v>0.01599999999999996</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.9775516294325052</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.9887487085775396</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.9618970566512602</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.9983337449731385</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.4213572192119134</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0.4527563867497861</v>
       </c>
     </row>
     <row r="125">
@@ -2568,10 +6308,40 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
         <v>0.1038387122487191</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
+        <v>0.5714285714285712</v>
+      </c>
+      <c r="G125" t="n">
         <v>0.008000000000000007</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.9867088135227052</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.9963914465596303</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.5362716851339961</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.9669481793166751</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.542039883519481</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0.4666911135558001</v>
       </c>
     </row>
     <row r="126">
@@ -2585,10 +6355,40 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
         <v>0.07293263013394377</v>
       </c>
-      <c r="E126" t="n">
-        <v>0</v>
+      <c r="F126" t="n">
+        <v>0.6190476190476186</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.9817072138419562</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.9921888565666153</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.8373213481418396</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.983965977254543</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.6198901544472704</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0.4666911135558001</v>
       </c>
     </row>
     <row r="127">
@@ -2602,10 +6402,40 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
         <v>0.2038462265778667</v>
       </c>
-      <c r="E127" t="n">
-        <v>0</v>
+      <c r="F127" t="n">
+        <v>0.6190476190476186</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.976994283393631</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.9882280593483574</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.5482693796306535</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.4666911135558001</v>
       </c>
     </row>
     <row r="128">
@@ -2619,10 +6449,40 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
         <v>0.2091605011144387</v>
       </c>
-      <c r="E128" t="n">
-        <v>0</v>
+      <c r="F128" t="n">
+        <v>0.5952380952380949</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.9902303686778351</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.9992841706990935</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.3707296219929684</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.9546659025765803</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.5981053485200338</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0.4754919936438088</v>
       </c>
     </row>
     <row r="129">
@@ -2636,10 +6496,40 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
         <v>0.1322241626530945</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
+        <v>0.5714285714285712</v>
+      </c>
+      <c r="G129" t="n">
         <v>0.008000000000000007</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.9857716115018474</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.99553657330343</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.4356150255383813</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.9698313082519218</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.5094179660142283</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0.4600904534897934</v>
       </c>
     </row>
     <row r="130">
@@ -2653,10 +6543,40 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
         <v>0.1325437117426058</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
+        <v>0.5476190476190474</v>
+      </c>
+      <c r="G130" t="n">
         <v>0.008000000000000007</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.9848169119561367</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.994720832159228</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.5617259035703712</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.9730170184310524</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.4515094548269379</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0.4654687690991322</v>
       </c>
     </row>
     <row r="131">
@@ -2670,10 +6590,40 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
         <v>0.1890613490013417</v>
       </c>
-      <c r="E131" t="n">
-        <v>0</v>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.9843845328380199</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.9943423400239799</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.5863861258720136</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.9744176722955573</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.5475690220796933</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0.4680356924581348</v>
       </c>
     </row>
     <row r="132">
@@ -2687,10 +6637,40 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
         <v>0.220402752932615</v>
       </c>
-      <c r="E132" t="n">
-        <v>0</v>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.9878018104328291</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.9971848303836268</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.4252858022654106</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.9626555518560601</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.5449887574182608</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0.465591003544799</v>
       </c>
     </row>
     <row r="133">
@@ -2708,6 +6688,36 @@
       </c>
       <c r="E133" t="n">
         <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.9883316002011683</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.9976118217982843</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.9607671626147806</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.5762468207453278</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0.4734140080674735</v>
       </c>
     </row>
   </sheetData>
